--- a/documentacao/teste_software/projeto_integrador.xlsx
+++ b/documentacao/teste_software/projeto_integrador.xlsx
@@ -62,9 +62,6 @@
     <t xml:space="preserve">Test Case ID: </t>
   </si>
   <si>
-    <t>TC1 Produtor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Priority (low,medium,high: </t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Verificar se as urls estão funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1 Usuario </t>
   </si>
 </sst>
 </file>
@@ -567,6 +567,9 @@
     <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -581,9 +584,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H984"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,10 +856,10 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -875,32 +875,32 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="10">
         <v>44269</v>
@@ -908,37 +908,37 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -946,39 +946,39 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -986,32 +986,32 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="18">
         <v>44269</v>
@@ -1019,34 +1019,34 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,19 +1054,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1074,19 +1074,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1096,32 +1096,32 @@
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>44269</v>
@@ -1129,34 +1129,34 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,19 +1164,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1184,19 +1184,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1206,32 +1206,32 @@
         <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
         <v>44269</v>
@@ -1239,34 +1239,34 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1274,19 +1274,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1294,19 +1294,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1316,32 +1316,32 @@
         <v>11</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="18">
         <v>44269</v>
@@ -1349,34 +1349,34 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1384,19 +1384,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,19 +1404,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1426,32 +1426,32 @@
         <v>11</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" s="18">
         <v>44269</v>
@@ -1459,34 +1459,34 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,19 +1494,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,19 +1514,19 @@
         <v>2</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1536,32 +1536,32 @@
         <v>11</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
         <v>44269</v>
@@ -1569,34 +1569,34 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="E58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,19 +1624,19 @@
         <v>2</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1646,32 +1646,32 @@
         <v>11</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="18">
         <v>44269</v>
@@ -1679,34 +1679,34 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1714,19 +1714,19 @@
         <v>1</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1734,19 +1734,19 @@
         <v>2</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,32 +1756,32 @@
         <v>11</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" s="18">
         <v>44269</v>
@@ -1789,34 +1789,34 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="F73" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,19 +1824,19 @@
         <v>1</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,19 +1844,19 @@
         <v>2</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2770,17 +2770,17 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B31:D31"/>
@@ -2791,6 +2791,6 @@
     <mergeCell ref="B48:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>